--- a/data/trans_dic/P1002-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1002-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>17,79%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,42; 14,37</t>
+          <t>9,13; 14,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,55; 25,79</t>
+          <t>19,84; 24,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,76; 20,83</t>
+          <t>16,1; 19,95</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>5,62%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,05; 6,25</t>
+          <t>3,15; 5,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,16; 8,69</t>
+          <t>4,78; 8,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 7,01</t>
+          <t>4,46; 6,54</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,44%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,56</t>
+          <t>2,4; 5,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 9,0</t>
+          <t>5,38; 9,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 6,85</t>
+          <t>4,33; 6,82</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>7,76%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 6,78</t>
+          <t>4,17; 6,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,65; 11,89</t>
+          <t>8,37; 11,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,75; 9,19</t>
+          <t>6,68; 8,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1002-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1002-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,21</t>
+          <t>8,18; 11,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,81; 15,52</t>
+          <t>10,66; 15,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 11,32</t>
+          <t>7,27; 11,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,13; 14,0</t>
+          <t>9,11; 14,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,02; 14,86</t>
+          <t>11,09; 14,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,74; 25,4</t>
+          <t>20,64; 25,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,09; 23,47</t>
+          <t>17,84; 23,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,84; 24,75</t>
+          <t>19,74; 24,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 12,96</t>
+          <t>10,32; 12,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,15; 20,51</t>
+          <t>17,13; 20,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,71; 17,45</t>
+          <t>13,86; 17,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,1; 19,95</t>
+          <t>16,11; 19,77</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,58</t>
+          <t>2,1; 3,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,57</t>
+          <t>3,6; 5,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 5,63</t>
+          <t>3,72; 5,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,66</t>
+          <t>3,1; 5,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,37</t>
+          <t>4,93; 7,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 10,97</t>
+          <t>8,1; 11,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 8,72</t>
+          <t>6,3; 8,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 8,05</t>
+          <t>4,86; 7,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 5,12</t>
+          <t>3,65; 5,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 7,75</t>
+          <t>6,1; 8,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 6,87</t>
+          <t>5,24; 6,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 6,54</t>
+          <t>4,4; 6,53</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,7</t>
+          <t>2,19; 5,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,65</t>
+          <t>1,62; 5,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,94</t>
+          <t>1,56; 4,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,59</t>
+          <t>2,46; 5,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,71</t>
+          <t>3,04; 6,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 7,24</t>
+          <t>2,88; 7,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,6</t>
+          <t>3,06; 6,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 9,09</t>
+          <t>5,41; 9,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 5,63</t>
+          <t>3,0; 5,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,57</t>
+          <t>2,61; 5,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,9</t>
+          <t>2,64; 5,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,82</t>
+          <t>4,24; 6,82</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,07</t>
+          <t>4,47; 6,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 7,58</t>
+          <t>5,83; 7,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 6,19</t>
+          <t>4,63; 6,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,29</t>
+          <t>4,18; 6,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,59; 9,47</t>
+          <t>7,49; 9,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,75; 15,2</t>
+          <t>12,84; 15,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,64; 11,79</t>
+          <t>9,61; 11,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,37; 11,21</t>
+          <t>8,26; 11,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,57</t>
+          <t>6,26; 7,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,58; 11,18</t>
+          <t>9,67; 11,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,5; 8,78</t>
+          <t>7,4; 8,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 8,57</t>
+          <t>6,71; 8,53</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que dejo de hacer algunas tareas por problemas emocionales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>103355</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>125898</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>69263</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>58575</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>169055</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>306409</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>204481</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>167032</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>272410</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>432307</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>273744</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>225606</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>84391; 122392</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>103878; 149204</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>54813; 85086</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>46838; 72732</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>145849; 194514</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>275864; 339414</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>177442; 232502</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>148834; 185837</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>242165; 301415</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>395838; 470119</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>242483; 306951</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>204366; 250802</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>47064</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>89022</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>96103</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>103871</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>95327</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>166696</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>149036</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>150521</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>142391</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>255718</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>245139</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>254392</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>35561; 63540</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>70725; 109889</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>77187; 118229</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>71005; 129322</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>78337; 116189</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>142331; 194415</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>125245; 175226</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>108789; 178771</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>119860; 168728</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>227003; 298261</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>212838; 276663</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>199269; 295841</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20115</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14939</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>16042</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24686</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22427</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>21996</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>24595</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>46378</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>42542</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>36936</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>40638</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>71064</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12093; 30761</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7816; 26194</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8523; 26427</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15886; 36704</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14462; 33204</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13229; 32661</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16780; 36879</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>35711; 61093</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30784; 56717</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24486; 53157</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>28959; 55314</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>55363; 89127</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>170534</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>229859</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>181408</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>187132</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>286809</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>495101</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>378113</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>363931</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>457343</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>724960</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>559521</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>551063</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>146413; 197135</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>199284; 265356</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>156442; 210780</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>144411; 220310</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>253234; 321680</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>456083; 539469</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>339432; 416453</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>301583; 406681</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>416591; 501248</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>673897; 776250</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>511555; 608392</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>476932; 606191</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>